--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_104_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_104_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.3483081760100772, 1.8367397015273335]</t>
+          <t>[1.3518225144817309, 1.8332253630556798]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.1679250412089155, 0.492073905523138]</t>
+          <t>[0.16803437671892385, 0.49196457001312965]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.0001701580893422872</v>
+        <v>0.0001686849562041459</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0001701580893422872</v>
+        <v>0.0001686849562041459</v>
       </c>
       <c r="W2" t="n">
         <v>18.85837837837896</v>
